--- a/bank statement generator/bank_statements/statement_22.xlsx
+++ b/bank statement generator/bank_statements/statement_22.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 05.07.2025</t>
+          <t>KONTOSTAND AM 21.11.2023</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,130 +759,146 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>08.07.</t>
+          <t>24.11.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>09.07.</t>
+          <t>25.11.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>PAYPAL IOCIHZ</t>
+          <t>KARTENZAHLUNG SHELL TANKSTELLE</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>92,06-</t>
+          <t>58,63-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>11.07.</t>
+          <t>27.11.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>12.07.</t>
+          <t>28.11.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>RECHNUNG VODAFONE GMBH 62702506</t>
+          <t>BEITRAG Allianz SE K-28252062</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>39,42-</t>
+          <t>54,58-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>14.07.</t>
+          <t>01.12.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>15.07.</t>
+          <t>02.12.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>PAYPAL DGAPZG</t>
+          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>63,31-</t>
+          <t>25,16-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>17.07.</t>
+          <t>05.12.</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>18.07.</t>
+          <t>06.12.</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>KARTENZ./17.07 LIDL RO</t>
+          <t>KARTENZAHLUNG ARAL TANKSTELLE</t>
         </is>
       </c>
       <c r="E9" s="17" t="inlineStr">
         <is>
-          <t>63,03-</t>
+          <t>62,42-</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>19.07.</t>
+          <t>06.12.</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>20.07.</t>
+          <t>07.12.</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>ZALANDO MKTPLC EU LXDCGR</t>
+          <t>KARTENZAHLUNG SHELL TANKSTELLE</t>
         </is>
       </c>
       <c r="E10" s="17" t="inlineStr">
         <is>
-          <t>27,55-</t>
+          <t>69,94-</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="8" t="n"/>
-      <c r="C11" s="8" t="n"/>
-      <c r="D11" s="8" t="n"/>
-      <c r="E11" s="12" t="n"/>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>09.12.</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>10.12.</t>
+        </is>
+      </c>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>KARTENZAHLUNG JET TANKSTELLE</t>
+        </is>
+      </c>
+      <c r="E11" s="17" t="inlineStr">
+        <is>
+          <t>44,02-</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="27.75" customHeight="1">
       <c r="B12" s="8" t="n"/>
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 22.07.2025</t>
+          <t>KONTOSTAND AM 14.12.2023</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>285,37-</t>
+          <t>314,75-</t>
         </is>
       </c>
     </row>
@@ -890,7 +906,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 28.07.2025</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 22.12.2023</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
